--- a/scripts/visualizations/concordance/concordance_results.xlsx
+++ b/scripts/visualizations/concordance/concordance_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matt/Documents/GitHub/mhc/scripts/visualizations/concordance/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CADB3999-BE50-CB49-8421-B0D0DAA6CD7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{9B7E34D3-B777-8049-BDEF-139E4F79A3E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="0" windowWidth="28040" windowHeight="17440" xr2:uid="{B52CB29C-69FB-6A47-9443-7357C951EC93}"/>
+    <workbookView xWindow="440" yWindow="8200" windowWidth="27980" windowHeight="9240" xr2:uid="{97D13984-01C5-2544-8CE8-5CED1B35AD72}"/>
   </bookViews>
   <sheets>
     <sheet name="concordance_results" sheetId="1" r:id="rId1"/>
@@ -37,10 +37,13 @@
     <t>HG005</t>
   </si>
   <si>
-    <t>SNP</t>
+    <t>F1</t>
   </si>
   <si>
-    <t>Indel</t>
+    <t>Precision</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recall </t>
   </si>
   <si>
     <t># Truth</t>
@@ -49,25 +52,25 @@
     <t>Recall</t>
   </si>
   <si>
-    <t>Precision</t>
+    <t>Indel</t>
   </si>
   <si>
-    <t>F1</t>
+    <t>SNP</t>
   </si>
   <si>
-    <t xml:space="preserve">Recall </t>
+    <t>ONT PromethION</t>
   </si>
   <si>
     <t>PacBio Revio</t>
-  </si>
-  <si>
-    <t>ONT PromethION</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.000"/>
+  </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -398,7 +401,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -514,43 +517,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top/>
       <bottom style="medium">
         <color indexed="64"/>
@@ -567,7 +537,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -578,6 +550,50 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -591,14 +607,27 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -609,9 +638,7 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -621,21 +648,10 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -683,54 +699,57 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1107,379 +1126,391 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3EDAA14-F1BB-F84D-BFA3-A02D6D481077}">
-  <dimension ref="A1:I14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B2E124F-F4DB-FE44-936C-5C5486DDF40C}">
+  <dimension ref="B1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I14"/>
+      <selection activeCell="K4" sqref="K4:L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="9.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="10"/>
+    </row>
+    <row r="3" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="8"/>
+      <c r="C3" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="10"/>
+    </row>
+    <row r="4" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="13">
+        <v>2433</v>
+      </c>
+      <c r="D5" s="14">
+        <v>0.99630099999999999</v>
+      </c>
+      <c r="E5" s="14">
+        <v>0.99958800000000003</v>
+      </c>
+      <c r="F5" s="15">
+        <v>0.997942</v>
+      </c>
+      <c r="G5" s="13">
+        <v>177</v>
+      </c>
+      <c r="H5" s="14">
+        <v>0.97740099999999996</v>
+      </c>
+      <c r="I5" s="14">
+        <v>0.99431800000000004</v>
+      </c>
+      <c r="J5" s="15">
+        <v>0.98578699999999997</v>
+      </c>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="5">
+        <v>2113</v>
+      </c>
+      <c r="D6" s="16">
+        <v>0.98864200000000002</v>
+      </c>
+      <c r="E6" s="16">
+        <v>0.99146900000000004</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.99005299999999996</v>
+      </c>
+      <c r="G6" s="5">
+        <v>182</v>
+      </c>
+      <c r="H6" s="16">
+        <v>0.98351599999999995</v>
+      </c>
+      <c r="I6" s="16">
+        <v>0.97872300000000001</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0.98111400000000004</v>
+      </c>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="5">
+        <v>2393</v>
+      </c>
+      <c r="D7" s="16">
+        <v>0.99832799999999999</v>
+      </c>
+      <c r="E7" s="16">
+        <v>0.99874700000000005</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.99853800000000004</v>
+      </c>
+      <c r="G7" s="5">
+        <v>183</v>
+      </c>
+      <c r="H7" s="16">
+        <v>0.99453599999999998</v>
+      </c>
+      <c r="I7" s="16">
+        <v>0.98930499999999999</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0.99191300000000004</v>
+      </c>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+    </row>
+    <row r="8" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="3">
+        <v>3028</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3">
+        <v>238</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.97899199999999997</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0.99585100000000004</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0.98734900000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="10"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="10"/>
     </row>
-    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="11"/>
-      <c r="B2" s="9" t="s">
+    <row r="10" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="8"/>
+      <c r="C10" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="10"/>
+    </row>
+    <row r="11" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9" t="s">
+      <c r="G11" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="10"/>
+      <c r="J11" s="6" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>10</v>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B12" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="13">
+        <v>2433</v>
+      </c>
+      <c r="D12" s="14">
+        <v>0.97533899999999996</v>
+      </c>
+      <c r="E12" s="14">
+        <v>0.99325699999999995</v>
+      </c>
+      <c r="F12" s="15">
+        <v>0.98421700000000001</v>
+      </c>
+      <c r="G12" s="13">
+        <v>177</v>
+      </c>
+      <c r="H12" s="14">
+        <v>0.87570599999999998</v>
+      </c>
+      <c r="I12" s="14">
+        <v>0.96089400000000003</v>
+      </c>
+      <c r="J12" s="15">
+        <v>0.91632400000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="15">
-        <v>2433</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0.99630099999999999</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0.99958800000000003</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0.997942</v>
-      </c>
-      <c r="F4" s="15">
-        <v>177</v>
-      </c>
-      <c r="G4" s="3">
-        <v>0.97740099999999996</v>
-      </c>
-      <c r="H4" s="3">
-        <v>0.99431800000000004</v>
-      </c>
-      <c r="I4" s="4">
-        <v>0.98578699999999997</v>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B13" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="5">
+        <v>2113</v>
+      </c>
+      <c r="D13" s="16">
+        <v>0.96687199999999995</v>
+      </c>
+      <c r="E13" s="16">
+        <v>0.97598499999999999</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0.97140700000000002</v>
+      </c>
+      <c r="G13" s="5">
+        <v>182</v>
+      </c>
+      <c r="H13" s="16">
+        <v>0.84615399999999996</v>
+      </c>
+      <c r="I13" s="16">
+        <v>0.94972100000000004</v>
+      </c>
+      <c r="J13" s="4">
+        <v>0.89495100000000005</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="15">
-        <v>2113</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0.98864200000000002</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0.99146900000000004</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0.99005299999999996</v>
-      </c>
-      <c r="F5" s="15">
-        <v>182</v>
-      </c>
-      <c r="G5" s="3">
-        <v>0.98351599999999995</v>
-      </c>
-      <c r="H5" s="3">
-        <v>0.97872300000000001</v>
-      </c>
-      <c r="I5" s="4">
-        <v>0.98111400000000004</v>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B14" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="5">
+        <v>2393</v>
+      </c>
+      <c r="D14" s="16">
+        <v>0.97576300000000005</v>
+      </c>
+      <c r="E14" s="16">
+        <v>0.98894599999999999</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0.98231000000000002</v>
+      </c>
+      <c r="G14" s="5">
+        <v>183</v>
+      </c>
+      <c r="H14" s="16">
+        <v>0.86885199999999996</v>
+      </c>
+      <c r="I14" s="16">
+        <v>0.95054899999999998</v>
+      </c>
+      <c r="J14" s="4">
+        <v>0.90786699999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="15">
-        <v>2393</v>
-      </c>
-      <c r="C6" s="3">
-        <v>0.99832799999999999</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0.99874700000000005</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0.99853800000000004</v>
-      </c>
-      <c r="F6" s="15">
-        <v>183</v>
-      </c>
-      <c r="G6" s="3">
-        <v>0.99453599999999998</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0.98930499999999999</v>
-      </c>
-      <c r="I6" s="4">
-        <v>0.99191300000000004</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
+    <row r="15" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="16">
+      <c r="C15" s="3">
         <v>3028</v>
       </c>
-      <c r="C7" s="6">
-        <v>1</v>
-      </c>
-      <c r="D7" s="6">
-        <v>1</v>
-      </c>
-      <c r="E7" s="6">
-        <v>1</v>
-      </c>
-      <c r="F7" s="16">
+      <c r="D15" s="2">
+        <v>0.99405500000000002</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0.99502000000000002</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.994537</v>
+      </c>
+      <c r="G15" s="3">
         <v>238</v>
       </c>
-      <c r="G7" s="6">
-        <v>0.97899199999999997</v>
-      </c>
-      <c r="H7" s="6">
-        <v>0.99585100000000004</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0.98734900000000003</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="10"/>
-    </row>
-    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="11"/>
-      <c r="B9" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="10"/>
-    </row>
-    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="I10" s="13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A11" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="15">
-        <v>2433</v>
-      </c>
-      <c r="C11" s="3">
-        <v>0.97616099999999995</v>
-      </c>
-      <c r="D11" s="3">
-        <v>0.99284499999999998</v>
-      </c>
-      <c r="E11" s="3">
-        <v>0.98443199999999997</v>
-      </c>
-      <c r="F11" s="2">
-        <v>177</v>
-      </c>
-      <c r="G11" s="3">
-        <v>0.87005600000000005</v>
-      </c>
-      <c r="H11" s="3">
-        <v>0.93442599999999998</v>
-      </c>
-      <c r="I11" s="4">
-        <v>0.90109300000000003</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A12" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="15">
-        <v>2113</v>
-      </c>
-      <c r="C12" s="3">
-        <v>0.96497900000000003</v>
-      </c>
-      <c r="D12" s="3">
-        <v>0.97171600000000002</v>
-      </c>
-      <c r="E12" s="3">
-        <v>0.96833599999999997</v>
-      </c>
-      <c r="F12" s="2">
-        <v>182</v>
-      </c>
-      <c r="G12" s="3">
-        <v>0.85714299999999999</v>
-      </c>
-      <c r="H12" s="3">
-        <v>0.92972999999999995</v>
-      </c>
-      <c r="I12" s="4">
-        <v>0.89196200000000003</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A13" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="15">
-        <v>2393</v>
-      </c>
-      <c r="C13" s="3">
-        <v>0.98119500000000004</v>
-      </c>
-      <c r="D13" s="3">
-        <v>0.98399300000000001</v>
-      </c>
-      <c r="E13" s="3">
-        <v>0.98259200000000002</v>
-      </c>
-      <c r="F13" s="2">
-        <v>183</v>
-      </c>
-      <c r="G13" s="3">
-        <v>0.87431700000000001</v>
-      </c>
-      <c r="H13" s="3">
-        <v>0.95652199999999998</v>
-      </c>
-      <c r="I13" s="4">
-        <v>0.913574</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="16">
-        <v>3028</v>
-      </c>
-      <c r="C14" s="6">
-        <v>0.99372499999999997</v>
-      </c>
-      <c r="D14" s="6">
-        <v>0.99468999999999996</v>
-      </c>
-      <c r="E14" s="6">
-        <v>0.99420699999999995</v>
-      </c>
-      <c r="F14" s="5">
-        <v>238</v>
-      </c>
-      <c r="G14" s="6">
-        <v>0.88235300000000005</v>
-      </c>
-      <c r="H14" s="6">
-        <v>0.917323</v>
-      </c>
-      <c r="I14" s="7">
-        <v>0.89949800000000002</v>
+      <c r="H15" s="2">
+        <v>0.89495800000000003</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0.94094500000000003</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0.91737500000000005</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J32">
+    <sortCondition descending="1" ref="B2:B32"/>
+    <sortCondition descending="1" ref="C2:C32"/>
+  </sortState>
   <mergeCells count="6">
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B9:J9"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>